--- a/doc/messagesDefinition-v2.xlsx
+++ b/doc/messagesDefinition-v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_wk\_p\dds-launchpad-iiot-poc-psg-pub\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{361354B4-6190-4D1E-A182-79155234E1F9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271F14C3-8A77-415A-83C0-FB74FD04552C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21317" windowHeight="12394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,7 @@
     <sheet name="sample01" sheetId="2" r:id="rId2"/>
     <sheet name="sample02" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="75">
   <si>
     <t>timestamp</t>
   </si>
@@ -39,9 +38,6 @@
     <t>magnitude</t>
   </si>
   <si>
-    <t>temperature</t>
-  </si>
-  <si>
     <t>batteryLevel</t>
   </si>
   <si>
@@ -250,6 +246,12 @@
   </si>
   <si>
     <t>[{'sensorIndex':5,'frequency':50,'magnitude':80},{'sensorIndex':5,'frequency':100,'magnitude':90},{'sensorIndex':5,'frequency':150,'magnitude':160},{'sensorIndex':5,'frequency':200,'magnitude':120},{'sensorIndex':5,'frequency':250,'magnitude':40},{'sensorIndex':5,'frequency':300,'magnitude':110},{'sensorIndex':5,'frequency':350,'magnitude':300},{'sensorIndex':5,'frequency':400,'magnitude':100},{'sensorIndex':5,'frequency':450,'magnitude':510},{'sensorIndex':5,'frequency':500,'magnitude':80},{'sensorIndex':5,'frequency':550,'magnitude':210},{'sensorIndex':5,'frequency':600,'magnitude':410},{'sensorIndex':5,'frequency':650,'magnitude':50},{'sensorIndex':5,'frequency':700,'magnitude':190},{'sensorIndex':5,'frequency':750,'magnitude':180},{'sensorIndex':5,'frequency':800,'magnitude':130},{'sensorIndex':5,'frequency':850,'magnitude':280},{'sensorIndex':5,'frequency':900,'magnitude':580},{'sensorIndex':5,'frequency':950,'magnitude':450},{'sensorIndex':5,'frequency':1000,'magnitude':360},{'sensorIndex':5,'frequency':1050,'magnitude':210},{'sensorIndex':5,'frequency':1100,'magnitude':150},{'sensorIndex':5,'frequency':1150,'magnitude':10},{'sensorIndex':5,'frequency':1200,'magnitude':50},{'sensorIndex':5,'frequency':1250,'magnitude':70},{'sensorIndex':5,'frequency':1300,'magnitude':40},{'sensorIndex':5,'frequency':1350,'magnitude':20},{'sensorIndex':5,'frequency':1400,'magnitude':80},{'sensorIndex':5,'frequency':1450,'magnitude':90},{'sensorIndex':5,'frequency':1500,'magnitude':130},{'sensorIndex':5,'frequency':1550,'magnitude':160},{'sensorIndex':5,'frequency':1600,'magnitude':150},{'sensorIndex':5,'frequency':1650,'magnitude':160},{'sensorIndex':5,'frequency':1700,'magnitude':150},{'sensorIndex':5,'frequency':1750,'magnitude':160},{'sensorIndex':5,'frequency':1800,'magnitude':140},{'sensorIndex':5,'frequency':1850,'magnitude':280},{'sensorIndex':5,'frequency':1900,'magnitude':210},{'sensorIndex':5,'frequency':1950,'magnitude':280},{'sensorIndex':5,'frequency':2000,'magnitude':300},{'sensorIndex':5,'frequency':2050,'magnitude':350},{'sensorIndex':5,'frequency':2100,'magnitude':380},{'sensorIndex':5,'frequency':2150,'magnitude':320},{'sensorIndex':5,'frequency':2200,'magnitude':470},{'sensorIndex':5,'frequency':2250,'magnitude':380},{'sensorIndex':5,'frequency':2300,'magnitude':350},{'sensorIndex':5,'frequency':2350,'magnitude':300},{'sensorIndex':5,'frequency':2400,'magnitude':250},{'sensorIndex':5,'frequency':2450,'magnitude':220},{'sensorIndex':5,'frequency':2500,'magnitude':270},{'sensorIndex':5,'frequency':2550,'magnitude':110},{'sensorIndex':5,'frequency':2600,'magnitude':120},{'sensorIndex':5,'frequency':2650,'magnitude':170},{'sensorIndex':5,'frequency':2700,'magnitude':140},{'sensorIndex':5,'frequency':2750,'magnitude':180},{'sensorIndex':5,'frequency':2800,'magnitude':190},{'sensorIndex':5,'frequency':2850,'magnitude':240},{'sensorIndex':5,'frequency':2900,'magnitude':270},{'sensorIndex':5,'frequency':2950,'magnitude':300},{'sensorIndex':5,'frequency':5=3000,'magnitude':350},{'sensorIndex':5,'frequency':3050,'magnitude':300},{'sensorIndex':5,'frequency':3100,'magnitude':280},{'sensorIndex':5,'frequency':3150,'magnitude':200},{'sensorIndex':5,'frequency':3200,'magnitude':220},{'sensorIndex':5,'frequency':3250,'magnitude':240},{'sensorIndex':5,'frequency':3300,'magnitude':260},{'sensorIndex':5,'frequency':3350,'magnitude':300},{'sensorIndex':5,'frequency':3400,'magnitude':330},{'sensorIndex':5,'frequency':3450,'magnitude':350},{'sensorIndex':5,'frequency':3500,'magnitude':370},{'sensorIndex':5,'frequency':3550,'magnitude':400},{'sensorIndex':5,'frequency':3600,'magnitude':450},{'sensorIndex':5,'frequency':3650,'magnitude':560},{'sensorIndex':5,'frequency':3700,'magnitude':420},{'sensorIndex':5,'frequency':3750,'magnitude':490},{'sensorIndex':5,'frequency':3800,'magnitude':430},{'sensorIndex':5,'frequency':3850,'magnitude':400},{'sensorIndex':5,'frequency':3900,'magnitude':330},{'sensorIndex':5,'frequency':3950,'magnitude':350},{'sensorIndex':5,'frequency':4000,'magnitude':310},{'sensorIndex':5,'frequency':4050,'magnitude':310},{'sensorIndex':5,'frequency':4100,'magnitude':240},{'sensorIndex':5,'frequency':4150,'magnitude':260},{'sensorIndex':5,'frequency':4200,'magnitude':230},{'sensorIndex':5,'frequency':4250,'magnitude':180},{'sensorIndex':5,'frequency':4300,'magnitude':110},{'sensorIndex':5,'frequency':4350,'magnitude':120},{'sensorIndex':5,'frequency':4400,'magnitude':170},{'sensorIndex':5,'frequency':4450,'magnitude':150},{'sensorIndex':5,'frequency':4500,'magnitude':20},{'sensorIndex':5,'frequency':4550,'magnitude':30},{'sensorIndex':5,'frequency':4600,'magnitude':20},{'sensorIndex':5,'frequency':4650,'magnitude':70},{'sensorIndex':5,'frequency':4700,'magnitude':80},{'sensorIndex':5,'frequency':4750,'magnitude':90},{'sensorIndex':5,'frequency':4800,'magnitude':160},{'sensorIndex':5,'frequency':4850,'magnitude':150},{'sensorIndex':5,'frequency':4900,'magnitude':160},{'sensorIndex':5,'frequency':4950,'magnitude':180},{'sensorIndex':5,'frequency':5000,'magnitude':130}]</t>
+  </si>
+  <si>
+    <t>tempExternal</t>
+  </si>
+  <si>
+    <t>tempInternal</t>
   </si>
 </sst>
 </file>
@@ -607,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -619,87 +621,93 @@
     <col min="2" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="14.3046875" customWidth="1"/>
     <col min="5" max="5" width="20.15234375" customWidth="1"/>
-    <col min="6" max="6" width="12.53515625" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="16.53515625" customWidth="1"/>
-    <col min="9" max="9" width="12.07421875" customWidth="1"/>
+    <col min="6" max="7" width="12.53515625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="16.53515625" customWidth="1"/>
+    <col min="10" max="10" width="12.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
       <c r="I1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>11</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -710,10 +718,13 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>4096</v>
@@ -722,669 +733,750 @@
         <v>4096</v>
       </c>
       <c r="H5">
+        <v>4096</v>
+      </c>
+      <c r="I5">
         <v>1025</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>-50</v>
+      </c>
+      <c r="G6">
+        <v>-50</v>
+      </c>
+      <c r="H6">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="F6">
-        <v>233</v>
-      </c>
-      <c r="G6">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
       <c r="F7">
-        <v>358</v>
+        <v>255</v>
       </c>
       <c r="G7">
+        <v>255</v>
+      </c>
+      <c r="H7">
         <v>3600</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G8">
+        <v>155</v>
+      </c>
+      <c r="H8">
         <v>3000</v>
       </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
-      <c r="I8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>10000</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="G9">
+        <v>140</v>
+      </c>
+      <c r="H9">
         <v>2500</v>
       </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
-      <c r="I9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>10000</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="G10">
+        <v>130</v>
+      </c>
+      <c r="H10">
         <v>3500</v>
       </c>
-      <c r="H10">
-        <v>100</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>13000</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G11">
+        <v>110</v>
+      </c>
+      <c r="H11">
         <v>2000</v>
       </c>
-      <c r="H11">
-        <v>100</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>14000</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12">
-        <v>320</v>
+        <v>90</v>
       </c>
       <c r="G12">
+        <v>95</v>
+      </c>
+      <c r="H12">
         <v>1500</v>
       </c>
-      <c r="H12">
-        <v>100</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10000</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="G13">
+        <v>87</v>
+      </c>
+      <c r="H13">
         <v>2045</v>
       </c>
-      <c r="H13">
-        <v>100</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>14000</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="G14">
+        <v>78</v>
+      </c>
+      <c r="H14">
         <v>3000</v>
       </c>
-      <c r="H14">
-        <v>100</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13000</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="G15">
+        <v>69</v>
+      </c>
+      <c r="H15">
         <v>3800</v>
       </c>
-      <c r="H15">
-        <v>100</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14000</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="G16">
+        <v>55</v>
+      </c>
+      <c r="H16">
         <v>3700</v>
       </c>
-      <c r="H16">
-        <v>100</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I16">
+        <v>100</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>10000</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="H17">
         <v>2000</v>
       </c>
-      <c r="H17">
-        <v>100</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>14000</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G18">
+        <v>45</v>
+      </c>
+      <c r="H18">
         <v>2400</v>
       </c>
-      <c r="H18">
-        <v>100</v>
-      </c>
-      <c r="I18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>13000</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19">
-        <v>270</v>
+        <v>30</v>
       </c>
       <c r="G19">
+        <v>38</v>
+      </c>
+      <c r="H19">
         <v>3000</v>
       </c>
-      <c r="H19">
-        <v>100</v>
-      </c>
-      <c r="I19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>14000</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20">
-        <v>280</v>
+        <v>21</v>
       </c>
       <c r="G20">
+        <v>25</v>
+      </c>
+      <c r="H20">
         <v>3100</v>
       </c>
-      <c r="H20">
-        <v>100</v>
-      </c>
-      <c r="I20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I20">
+        <v>100</v>
+      </c>
+      <c r="J20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>10000</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G21">
+        <v>30</v>
+      </c>
+      <c r="H21">
         <v>3000</v>
       </c>
-      <c r="H21">
-        <v>100</v>
-      </c>
-      <c r="I21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>14000</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="G22">
+        <v>38</v>
+      </c>
+      <c r="H22">
         <v>2900</v>
       </c>
-      <c r="H22">
-        <v>100</v>
-      </c>
-      <c r="I22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>14000</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23">
         <v>20</v>
       </c>
-      <c r="E23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23">
-        <v>340</v>
-      </c>
       <c r="G23">
+        <v>27</v>
+      </c>
+      <c r="H23">
         <v>3500</v>
       </c>
-      <c r="H23">
-        <v>100</v>
-      </c>
-      <c r="I23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I23">
+        <v>100</v>
+      </c>
+      <c r="J23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>10000</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24">
-        <v>330</v>
+        <v>10</v>
       </c>
       <c r="G24">
+        <v>16</v>
+      </c>
+      <c r="H24">
         <v>4000</v>
       </c>
-      <c r="H24">
-        <v>100</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I24">
+        <v>100</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>10000</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
         <v>3800</v>
       </c>
-      <c r="H25">
-        <v>100</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I25">
+        <v>100</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>10000</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26">
-        <v>220</v>
+        <v>-10</v>
       </c>
       <c r="G26">
+        <v>-2</v>
+      </c>
+      <c r="H26">
         <v>3700</v>
       </c>
-      <c r="H26">
-        <v>100</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I26">
+        <v>100</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>13000</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27">
-        <v>300</v>
+        <v>-20</v>
       </c>
       <c r="G27">
+        <v>-12</v>
+      </c>
+      <c r="H27">
         <v>3600</v>
       </c>
-      <c r="H27">
-        <v>100</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I27">
+        <v>100</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>14000</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28">
-        <v>310</v>
+        <v>-30</v>
       </c>
       <c r="G28">
+        <v>-23</v>
+      </c>
+      <c r="H28">
         <v>3500</v>
       </c>
-      <c r="H28">
-        <v>100</v>
-      </c>
-      <c r="I28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I28">
+        <v>100</v>
+      </c>
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>10000</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29">
-        <v>320</v>
+        <v>-40</v>
       </c>
       <c r="G29">
+        <v>-44</v>
+      </c>
+      <c r="H29">
         <v>3400</v>
       </c>
-      <c r="H29">
-        <v>100</v>
-      </c>
-      <c r="I29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I29">
+        <v>100</v>
+      </c>
+      <c r="J29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>10000</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30">
-        <v>330</v>
+        <v>-50</v>
       </c>
       <c r="G30">
+        <v>-45</v>
+      </c>
+      <c r="H30">
         <v>3300</v>
       </c>
-      <c r="H30">
-        <v>100</v>
-      </c>
-      <c r="I30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I30">
+        <v>100</v>
+      </c>
+      <c r="J30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>14000</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31">
-        <v>340</v>
+        <v>-55</v>
       </c>
       <c r="G31">
+        <v>-50</v>
+      </c>
+      <c r="H31">
         <v>3200</v>
       </c>
-      <c r="H31">
-        <v>100</v>
-      </c>
-      <c r="I31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I31">
+        <v>100</v>
+      </c>
+      <c r="J31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1394,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1407,100 +1499,106 @@
     <col min="4" max="4" width="14.3046875" customWidth="1"/>
     <col min="5" max="5" width="20.15234375" customWidth="1"/>
     <col min="6" max="6" width="13.53515625" customWidth="1"/>
-    <col min="7" max="7" width="12.53515625" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="16.53515625" customWidth="1"/>
-    <col min="10" max="10" width="255.69140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="182.53515625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.53515625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="16.53515625" customWidth="1"/>
+    <col min="11" max="11" width="255.69140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="182.53515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>11</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1514,16 +1612,19 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>7</v>
@@ -1535,340 +1636,376 @@
         <v>4096</v>
       </c>
       <c r="I5">
+        <v>4096</v>
+      </c>
+      <c r="J5">
         <v>1000</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>255</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>233</v>
+        <v>-50</v>
       </c>
       <c r="H6">
+        <v>-50</v>
+      </c>
+      <c r="I6">
         <v>2700</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>358</v>
+        <v>200</v>
       </c>
       <c r="H7">
+        <v>200</v>
+      </c>
+      <c r="I7">
         <v>3600</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>255</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="H8">
+        <v>66</v>
+      </c>
+      <c r="I8">
         <v>3000</v>
       </c>
-      <c r="I8">
-        <v>100</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>10000</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="H9">
+        <v>87</v>
+      </c>
+      <c r="I9">
         <v>2500</v>
       </c>
-      <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>20000</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="H10">
+        <v>76</v>
+      </c>
+      <c r="I10">
         <v>3500</v>
       </c>
-      <c r="I10">
-        <v>100</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>5000</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="H11">
+        <v>60</v>
+      </c>
+      <c r="I11">
         <v>3001</v>
       </c>
-      <c r="I11">
-        <v>100</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10000</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
       <c r="G12">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="H12">
+        <v>46</v>
+      </c>
+      <c r="I12">
         <v>2501</v>
       </c>
-      <c r="I12">
-        <v>100</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>20000</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13">
         <v>5</v>
       </c>
       <c r="G13">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="H13">
+        <v>37</v>
+      </c>
+      <c r="I13">
         <v>3501</v>
       </c>
-      <c r="I13">
-        <v>100</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>15000</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14">
         <v>6</v>
       </c>
       <c r="G14">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="H14">
+        <v>25</v>
+      </c>
+      <c r="I14">
         <v>3002</v>
       </c>
-      <c r="I14">
-        <v>100</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10000</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15">
         <v>7</v>
       </c>
       <c r="G15">
-        <v>202</v>
+        <v>-10</v>
       </c>
       <c r="H15">
+        <v>-5</v>
+      </c>
+      <c r="I15">
         <v>2502</v>
       </c>
-      <c r="I15">
-        <v>100</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J15">
+        <v>100</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>20000</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>165</v>
+        <v>-20</v>
       </c>
       <c r="H16">
+        <v>-15</v>
+      </c>
+      <c r="I16">
         <v>3503</v>
       </c>
-      <c r="I16">
-        <v>100</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>46</v>
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1879,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8977B2-AAE5-4B3C-96B4-E86BDEB69204}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1892,679 +2029,755 @@
     <col min="3" max="3" width="8.84375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.3828125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.07421875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.61328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="36.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.07421875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.61328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="36.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
       <c r="I1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="G2">
+        <v>135</v>
+      </c>
+      <c r="H2">
         <v>3000</v>
       </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>10000</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="G3">
+        <v>126</v>
+      </c>
+      <c r="H3">
         <v>2500</v>
       </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>10000</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>290</v>
+        <v>110</v>
       </c>
       <c r="G4">
+        <v>114</v>
+      </c>
+      <c r="H4">
         <v>3500</v>
       </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>13000</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G5">
+        <v>105</v>
+      </c>
+      <c r="H5">
         <v>2000</v>
       </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>14000</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6">
-        <v>320</v>
+        <v>90</v>
       </c>
       <c r="G6">
+        <v>93</v>
+      </c>
+      <c r="H6">
         <v>1500</v>
       </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>10000</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="G7">
+        <v>84</v>
+      </c>
+      <c r="H7">
         <v>2045</v>
       </c>
-      <c r="H7">
-        <v>100</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>14000</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="G8">
+        <v>76</v>
+      </c>
+      <c r="H8">
         <v>3000</v>
       </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>13000</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="G9">
+        <v>67</v>
+      </c>
+      <c r="H9">
         <v>3800</v>
       </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>14000</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="G10">
+        <v>55</v>
+      </c>
+      <c r="H10">
         <v>3700</v>
       </c>
-      <c r="H10">
-        <v>100</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10000</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G11">
+        <v>45</v>
+      </c>
+      <c r="H11">
         <v>2000</v>
       </c>
-      <c r="H11">
-        <v>100</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>14000</v>
       </c>
       <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12">
         <v>36</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12">
-        <v>250</v>
-      </c>
-      <c r="G12">
+      <c r="H12">
         <v>2400</v>
       </c>
-      <c r="H12">
-        <v>100</v>
-      </c>
-      <c r="I12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>13000</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13">
-        <v>270</v>
-      </c>
-      <c r="G13">
+      <c r="H13">
         <v>3000</v>
       </c>
-      <c r="H13">
-        <v>100</v>
-      </c>
-      <c r="I13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>14000</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="G14">
+        <v>16</v>
+      </c>
+      <c r="H14">
         <v>3100</v>
       </c>
-      <c r="H14">
-        <v>100</v>
-      </c>
-      <c r="I14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10000</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
         <v>3000</v>
       </c>
-      <c r="H15">
-        <v>100</v>
-      </c>
-      <c r="I15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14000</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16">
-        <v>350</v>
+        <v>-10</v>
       </c>
       <c r="G16">
+        <v>-5</v>
+      </c>
+      <c r="H16">
         <v>2900</v>
       </c>
-      <c r="H16">
-        <v>100</v>
-      </c>
-      <c r="I16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I16">
+        <v>100</v>
+      </c>
+      <c r="J16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>14000</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17">
-        <v>340</v>
+        <v>-20</v>
       </c>
       <c r="G17">
+        <v>-14</v>
+      </c>
+      <c r="H17">
         <v>3500</v>
       </c>
-      <c r="H17">
-        <v>100</v>
-      </c>
-      <c r="I17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>10000</v>
       </c>
       <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18">
+        <f>30</f>
+        <v>30</v>
+      </c>
+      <c r="G18">
         <v>36</v>
       </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18">
-        <v>330</v>
-      </c>
-      <c r="G18">
+      <c r="H18">
         <v>4000</v>
       </c>
-      <c r="H18">
-        <v>100</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>10000</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19">
-        <v>210</v>
+        <v>-30</v>
       </c>
       <c r="G19">
+        <v>-25</v>
+      </c>
+      <c r="H19">
         <v>3800</v>
       </c>
-      <c r="H19">
-        <v>100</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>10000</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20">
-        <v>220</v>
+        <v>-40</v>
       </c>
       <c r="G20">
+        <v>-34</v>
+      </c>
+      <c r="H20">
         <v>3700</v>
       </c>
-      <c r="H20">
-        <v>100</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I20">
+        <v>100</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>13000</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21">
-        <v>300</v>
+        <v>-45</v>
       </c>
       <c r="G21">
+        <v>-39</v>
+      </c>
+      <c r="H21">
         <v>3600</v>
       </c>
-      <c r="H21">
-        <v>100</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>14000</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22">
-        <v>310</v>
+        <v>-30</v>
       </c>
       <c r="G22">
+        <v>-24</v>
+      </c>
+      <c r="H22">
         <v>3500</v>
       </c>
-      <c r="H22">
-        <v>100</v>
-      </c>
-      <c r="I22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>10000</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23">
-        <v>320</v>
+        <v>-20</v>
       </c>
       <c r="G23">
+        <v>-14</v>
+      </c>
+      <c r="H23">
         <v>3400</v>
       </c>
-      <c r="H23">
-        <v>100</v>
-      </c>
-      <c r="I23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I23">
+        <v>100</v>
+      </c>
+      <c r="J23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>10000</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24">
-        <v>330</v>
+        <v>-10</v>
       </c>
       <c r="G24">
+        <v>-3</v>
+      </c>
+      <c r="H24">
         <v>3300</v>
       </c>
-      <c r="H24">
-        <v>100</v>
-      </c>
-      <c r="I24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I24">
+        <v>100</v>
+      </c>
+      <c r="J24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>14000</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
         <v>3200</v>
       </c>
-      <c r="H25">
-        <v>100</v>
-      </c>
-      <c r="I25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I25">
+        <v>100</v>
+      </c>
+      <c r="J25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
